--- a/_site/posts/2023-05-26-dinamicaremesas/remittances_output_volatility.xlsx
+++ b/_site/posts/2023-05-26-dinamicaremesas/remittances_output_volatility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Mendieta\Documents\GitHub\EconoNICs\_posts\2023-05-26-dinamicaremesas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{657C1AA7-34FA-47DC-868B-F19E5825CD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{09837575-B288-49CB-990B-F80F469ED451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -984,7 +984,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
